--- a/LAPORAN PRODUK JADI KABEL - 线材成品/LAPORAN PRODUK JADI KABEL - 线材成品.xlsx
+++ b/LAPORAN PRODUK JADI KABEL - 线材成品/LAPORAN PRODUK JADI KABEL - 线材成品.xlsx
@@ -285,6 +285,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -311,9 +314,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +712,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,312 +728,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="20" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="22" t="s">
+      <c r="AL7" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="4">
         <v>45139</v>
       </c>
@@ -1124,8 +1124,8 @@
       <c r="AJ8" s="4">
         <v>45168</v>
       </c>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="23"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1438,11 +1438,11 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
-      <c r="AK14" s="26">
+      <c r="AK14" s="17">
         <f>SUM(G14:AJ14)</f>
         <v>2469</v>
       </c>
-      <c r="AL14" s="26">
+      <c r="AL14" s="17">
         <f>AK14-F14</f>
         <v>-2531</v>
       </c>
@@ -1618,6 +1618,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AK14" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
